--- a/src/Chemistry/Chem4Word.Model2/Resources/PeriodicTable.xlsx
+++ b/src/Chemistry/Chem4Word.Model2/Resources/PeriodicTable.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clyde\source\repos\Version3-2\src\Chemistry\Chem4Word.Model2\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Mike\C4W\Version3-3\src\Chemistry\Chem4Word.Model2\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6830BE6E-8428-420C-BC37-E14EFF5A2CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B2097D-21BE-49DC-9BC1-2B60F89B5404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8415" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PeriodicTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PeriodicTable!$A$1:$M$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PeriodicTable!$A$1:$N$125</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="525">
   <si>
     <t>Symbol</t>
   </si>
@@ -1607,6 +1607,9 @@
   </si>
   <si>
     <t>3|5|7</t>
+  </si>
+  <si>
+    <t>Hetero</t>
   </si>
 </sst>
 </file>
@@ -2101,10 +2104,9 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2455,13 +2457,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R125"/>
+  <dimension ref="A1:S125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,22 +2472,23 @@
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="70.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="70.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2499,49 +2502,52 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>376</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>377</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>383</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>384</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>385</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>417</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2554,12 +2560,12 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
         <v>0</v>
       </c>
@@ -2569,24 +2575,27 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>19</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>410</v>
       </c>
-      <c r="R2" t="str">
-        <f t="shared" ref="R2:R33" si="0">CONCATENATE("public Element ", A2, " { get; private set; } // ",B2," - Atomic Number ", C2)</f>
+      <c r="S2" t="str">
+        <f t="shared" ref="S2:S33" si="0">CONCATENATE("public Element ", A2, " { get; private set; } // ",B2," - Atomic Number ", C2)</f>
         <v>public Element Du { get; private set; } // Dummy - Atomic Number 0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2599,12 +2608,12 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -2614,24 +2623,27 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>19</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>410</v>
       </c>
-      <c r="R3" t="str">
+      <c r="S3" t="str">
         <f t="shared" si="0"/>
         <v>public Element M { get; private set; } // Metal - Atomic Number 0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2644,12 +2656,12 @@
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -2659,24 +2671,27 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>19</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>410</v>
       </c>
-      <c r="R4" t="str">
+      <c r="S4" t="str">
         <f t="shared" si="0"/>
         <v>public Element R { get; private set; } // Residue - Atomic Number 0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2689,12 +2704,12 @@
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -2704,24 +2719,27 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>3</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>19</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>410</v>
       </c>
-      <c r="R5" t="str">
+      <c r="S5" t="str">
         <f t="shared" si="0"/>
         <v>public Element X { get; private set; } // Halogen - Atomic Number 0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2734,12 +2752,12 @@
       <c r="D6" t="b">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
         <v>0</v>
       </c>
@@ -2747,26 +2765,29 @@
         <v>0</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>2.0139999999999998</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>1</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>4</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>19</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>410</v>
       </c>
-      <c r="R6" t="str">
+      <c r="S6" t="str">
         <f t="shared" si="0"/>
         <v>public Element D { get; private set; } // Deuterium - Atomic Number 1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2779,39 +2800,42 @@
       <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3.016</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>1</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>5</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>19</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>410</v>
       </c>
-      <c r="R7" t="str">
+      <c r="S7" t="str">
         <f t="shared" si="0"/>
         <v>public Element T { get; private set; } // Tritium - Atomic Number 1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2824,51 +2848,54 @@
       <c r="D8" t="b">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.31</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.2</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1.008</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
         <v>390</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>418</v>
       </c>
-      <c r="R8" t="str">
+      <c r="S8" t="str">
         <f t="shared" si="0"/>
         <v>public Element H { get; private set; } // Hydrogen - Atomic Number 1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2881,51 +2908,54 @@
       <c r="D9" t="b">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.4</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>4.0026020000000004</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>18</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>17</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>391</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>419</v>
       </c>
-      <c r="R9" t="str">
+      <c r="S9" t="str">
         <f t="shared" si="0"/>
         <v>public Element He { get; private set; } // Helium - Atomic Number 2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2938,48 +2968,51 @@
       <c r="D10" t="b">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>30</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.28</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1.82</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>6.94</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>1</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
         <v>392</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>420</v>
       </c>
-      <c r="R10" t="str">
+      <c r="S10" t="str">
         <f t="shared" si="0"/>
         <v>public Element Li { get; private set; } // Lithium - Atomic Number 3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -2992,48 +3025,51 @@
       <c r="D11" t="b">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.96</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>2</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>9.0121819999999992</v>
       </c>
-      <c r="J11" s="1">
-        <v>2</v>
-      </c>
-      <c r="L11">
+      <c r="K11" s="1">
         <v>2</v>
       </c>
       <c r="M11">
         <v>2</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
         <v>393</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>421</v>
       </c>
-      <c r="R11" t="str">
+      <c r="S11" t="str">
         <f t="shared" si="0"/>
         <v>public Element Be { get; private set; } // Beryllium - Atomic Number 4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -3046,51 +3082,54 @@
       <c r="D12" t="b">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
         <v>36</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.84</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>3</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>10.81</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>3</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>13</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>12</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>394</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>422</v>
       </c>
-      <c r="R12" t="str">
+      <c r="S12" t="str">
         <f t="shared" si="0"/>
         <v>public Element B { get; private set; } // Boron - Atomic Number 5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -3103,48 +3142,51 @@
       <c r="D13" t="b">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>0.76</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1.7</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>4</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>12.010999999999999</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>4</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>14</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>1</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>13</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>390</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>423</v>
       </c>
-      <c r="R13" t="str">
+      <c r="S13" t="str">
         <f t="shared" si="0"/>
         <v>public Element C { get; private set; } // Carbon - Atomic Number 6</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -3157,51 +3199,54 @@
       <c r="D14" t="b">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>42</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.71</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.55</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>14.007</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>15</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>2</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>14</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>390</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>424</v>
       </c>
-      <c r="R14" t="str">
+      <c r="S14" t="str">
         <f t="shared" si="0"/>
         <v>public Element N { get; private set; } // Nitrogen - Atomic Number 7</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -3214,51 +3259,54 @@
       <c r="D15" t="b">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>46</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.66</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.52</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>15.999000000000001</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>2</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>16</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>15</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>390</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>425</v>
       </c>
-      <c r="R15" t="str">
+      <c r="S15" t="str">
         <f t="shared" si="0"/>
         <v>public Element O { get; private set; } // Oxygen - Atomic Number 8</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -3271,51 +3319,54 @@
       <c r="D16" t="b">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
         <v>49</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1.47</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>18.998403199999998</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>1</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>19</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>17</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>16</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>395</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>426</v>
       </c>
-      <c r="R16" t="str">
+      <c r="S16" t="str">
         <f t="shared" si="0"/>
         <v>public Element F { get; private set; } // Fluorine - Atomic Number 9</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3328,48 +3379,51 @@
       <c r="D17" t="b">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
         <v>52</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1.54</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
       <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>20.1797</v>
       </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17">
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>18</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>2</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>17</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>391</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>427</v>
       </c>
-      <c r="R17" t="str">
+      <c r="S17" t="str">
         <f t="shared" si="0"/>
         <v>public Element Ne { get; private set; } // Neon - Atomic Number 10</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -3382,48 +3436,51 @@
       <c r="D18" t="b">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
         <v>55</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1.66</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2.27</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>22.989769280000001</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>1</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>3</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>2</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
         <v>392</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>428</v>
       </c>
-      <c r="R18" t="str">
+      <c r="S18" t="str">
         <f t="shared" si="0"/>
         <v>public Element Na { get; private set; } // Sodium - Atomic Number 11</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -3436,48 +3493,51 @@
       <c r="D19" t="b">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1.41</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1.73</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>24.305</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>2</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>2</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>3</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>2</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>1</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>393</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>429</v>
       </c>
-      <c r="R19" t="str">
+      <c r="S19" t="str">
         <f t="shared" si="0"/>
         <v>public Element Mg { get; private set; } // Magnesium - Atomic Number 12</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -3490,48 +3550,51 @@
       <c r="D20" t="b">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
         <v>61</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1.21</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>26.9815386</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>3</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>13</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>3</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>2</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>12</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>396</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>430</v>
       </c>
-      <c r="R20" t="str">
+      <c r="S20" t="str">
         <f t="shared" si="0"/>
         <v>public Element Al { get; private set; } // Aluminum - Atomic Number 13</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -3544,48 +3607,51 @@
       <c r="D21" t="b">
         <v>1</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
         <v>64</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2.1</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>4</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>28.085000000000001</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>4</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>14</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>3</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>2</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>13</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>394</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>431</v>
       </c>
-      <c r="R21" t="str">
+      <c r="S21" t="str">
         <f t="shared" si="0"/>
         <v>public Element Si { get; private set; } // Silicon - Atomic Number 14</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -3598,48 +3664,51 @@
       <c r="D22" t="b">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
         <v>67</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1.07</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1.8</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>3</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>30.973762000000001</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>15</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>3</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>2</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>14</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>390</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>432</v>
       </c>
-      <c r="R22" t="str">
+      <c r="S22" t="str">
         <f t="shared" si="0"/>
         <v>public Element P { get; private set; } // Phosphorus - Atomic Number 15</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -3652,48 +3721,51 @@
       <c r="D23" t="b">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
         <v>70</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1.05</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1.8</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>32.06</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>16</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>3</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>2</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>15</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>390</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>433</v>
       </c>
-      <c r="R23" t="str">
+      <c r="S23" t="str">
         <f t="shared" si="0"/>
         <v>public Element S { get; private set; } // Sulfur - Atomic Number 16</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -3706,51 +3778,54 @@
       <c r="D24" t="b">
         <v>1</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
         <v>74</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1.02</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1.75</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>35.450000000000003</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>17</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>3</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>2</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>16</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>395</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>434</v>
       </c>
-      <c r="R24" t="str">
+      <c r="S24" t="str">
         <f t="shared" si="0"/>
         <v>public Element Cl { get; private set; } // Chlorine - Atomic Number 17</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -3763,48 +3838,51 @@
       <c r="D25" t="b">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
         <v>78</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1.06</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1.88</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
       <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>39.948</v>
       </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25">
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>18</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>3</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>2</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>17</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>391</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>435</v>
       </c>
-      <c r="R25" t="str">
+      <c r="S25" t="str">
         <f t="shared" si="0"/>
         <v>public Element Ar { get; private set; } // Argon - Atomic Number 18</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -3817,48 +3895,51 @@
       <c r="D26" t="b">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
         <v>81</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2.0299999999999998</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2.75</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
       <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>39.098300000000002</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
         <v>1</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>4</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>3</v>
       </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="s">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="s">
         <v>392</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>436</v>
       </c>
-      <c r="R26" t="str">
+      <c r="S26" t="str">
         <f t="shared" si="0"/>
         <v>public Element K { get; private set; } // Potassium - Atomic Number 19</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -3871,48 +3952,51 @@
       <c r="D27" t="b">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
         <v>84</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1.76</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>40.078000000000003</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <v>2</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>2</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>4</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>3</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>1</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>393</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>437</v>
       </c>
-      <c r="R27" t="str">
+      <c r="S27" t="str">
         <f t="shared" si="0"/>
         <v>public Element Ca { get; private set; } // Calcium - Atomic Number 20</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -3925,48 +4009,51 @@
       <c r="D28" t="b">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
         <v>87</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1.7</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>44.955911999999998</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
         <v>3</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>3</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>4</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>3</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>2</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>397</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>438</v>
       </c>
-      <c r="R28" t="str">
+      <c r="S28" t="str">
         <f t="shared" si="0"/>
         <v>public Element Sc { get; private set; } // Scandium - Atomic Number 21</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -3979,48 +4066,51 @@
       <c r="D29" t="b">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
         <v>90</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1.6</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>1</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>47.866999999999997</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L29">
-        <v>4</v>
       </c>
       <c r="M29">
         <v>4</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O29">
         <v>3</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s">
         <v>397</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>439</v>
       </c>
-      <c r="R29" t="str">
+      <c r="S29" t="str">
         <f t="shared" si="0"/>
         <v>public Element Ti { get; private set; } // Titanium - Atomic Number 22</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -4033,48 +4123,51 @@
       <c r="D30" t="b">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
         <v>93</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1.53</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>1</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>50.941499999999998</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>5</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>4</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>3</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>4</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>397</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>440</v>
       </c>
-      <c r="R30" t="str">
+      <c r="S30" t="str">
         <f t="shared" si="0"/>
         <v>public Element V { get; private set; } // Vanadium - Atomic Number 23</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -4087,48 +4180,51 @@
       <c r="D31" t="b">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
         <v>97</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1.39</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>2</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>51.996099999999998</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>6</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>4</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>3</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>5</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>397</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>441</v>
       </c>
-      <c r="R31" t="str">
+      <c r="S31" t="str">
         <f t="shared" si="0"/>
         <v>public Element Cr { get; private set; } // Chromium - Atomic Number 24</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -4141,48 +4237,51 @@
       <c r="D32" t="b">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
         <v>101</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1.39</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>3</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>54.938045000000002</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>7</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>4</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>3</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>6</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>397</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>442</v>
       </c>
-      <c r="R32" t="str">
+      <c r="S32" t="str">
         <f t="shared" si="0"/>
         <v>public Element Mn { get; private set; } // Manganese - Atomic Number 25</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -4195,48 +4294,51 @@
       <c r="D33" t="b">
         <v>0</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
         <v>105</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>1.32</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
       <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>2</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>55.844999999999999</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>8</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>4</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>3</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>7</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>397</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>443</v>
       </c>
-      <c r="R33" t="str">
+      <c r="S33" t="str">
         <f t="shared" si="0"/>
         <v>public Element Fe { get; private set; } // Iron - Atomic Number 26</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -4249,48 +4351,51 @@
       <c r="D34" t="b">
         <v>0</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
         <v>109</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1.26</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>1</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>58.933194999999998</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>9</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>4</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>3</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>8</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>397</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>444</v>
       </c>
-      <c r="R34" t="str">
-        <f t="shared" ref="R34:R65" si="1">CONCATENATE("public Element ", A34, " { get; private set; } // ",B34," - Atomic Number ", C34)</f>
+      <c r="S34" t="str">
+        <f t="shared" ref="S34:S65" si="1">CONCATENATE("public Element ", A34, " { get; private set; } // ",B34," - Atomic Number ", C34)</f>
         <v>public Element Co { get; private set; } // Cobalt - Atomic Number 27</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>111</v>
       </c>
@@ -4303,48 +4408,51 @@
       <c r="D35" t="b">
         <v>0</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
         <v>113</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>1.24</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>1.63</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>1</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>58.693399999999997</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>10</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>4</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>3</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>9</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>397</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>445</v>
       </c>
-      <c r="R35" t="str">
+      <c r="S35" t="str">
         <f t="shared" si="1"/>
         <v>public Element Ni { get; private set; } // Nickel - Atomic Number 28</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -4357,48 +4465,51 @@
       <c r="D36" t="b">
         <v>0</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
         <v>117</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>1.32</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>1.4</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
       <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
         <v>63.545999999999999</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>11</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>4</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>3</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>10</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>397</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>446</v>
       </c>
-      <c r="R36" t="str">
+      <c r="S36" t="str">
         <f t="shared" si="1"/>
         <v>public Element Cu { get; private set; } // Copper - Atomic Number 29</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -4411,48 +4522,51 @@
       <c r="D37" t="b">
         <v>0</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
         <v>121</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1.22</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>1.39</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
       <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>65.38</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K37" s="1">
         <v>2</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>12</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>4</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>3</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>11</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>397</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>447</v>
       </c>
-      <c r="R37" t="str">
+      <c r="S37" t="str">
         <f t="shared" si="1"/>
         <v>public Element Zn { get; private set; } // Zinc - Atomic Number 30</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>122</v>
       </c>
@@ -4465,48 +4579,51 @@
       <c r="D38" t="b">
         <v>0</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
         <v>124</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>1.22</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>1.87</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>69.722999999999999</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>13</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>4</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>3</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>12</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>396</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>448</v>
       </c>
-      <c r="R38" t="str">
+      <c r="S38" t="str">
         <f t="shared" si="1"/>
         <v>public Element Ga { get; private set; } // Gallium - Atomic Number 31</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>125</v>
       </c>
@@ -4519,48 +4636,51 @@
       <c r="D39" t="b">
         <v>0</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
         <v>127</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>1.2</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
       <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>4</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>72.63</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>14</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>4</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>3</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>13</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>394</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>449</v>
       </c>
-      <c r="R39" t="str">
+      <c r="S39" t="str">
         <f t="shared" si="1"/>
         <v>public Element Ge { get; private set; } // Germanium - Atomic Number 32</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>129</v>
       </c>
@@ -4573,48 +4693,51 @@
       <c r="D40" t="b">
         <v>1</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
         <v>131</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>1.19</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>1.85</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>3</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>74.921599999999998</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>15</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>4</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>3</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>14</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>394</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>450</v>
       </c>
-      <c r="R40" t="str">
+      <c r="S40" t="str">
         <f t="shared" si="1"/>
         <v>public Element As { get; private set; } // Arsenic - Atomic Number 33</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>132</v>
       </c>
@@ -4627,48 +4750,51 @@
       <c r="D41" t="b">
         <v>1</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
         <v>134</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>1.2</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>1.9</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>2</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>78.959999999999994</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>16</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>4</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>3</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>15</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>390</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>451</v>
       </c>
-      <c r="R41" t="str">
+      <c r="S41" t="str">
         <f t="shared" si="1"/>
         <v>public Element Se { get; private set; } // Selenium - Atomic Number 34</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -4681,48 +4807,51 @@
       <c r="D42" t="b">
         <v>1</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
         <v>137</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>1.2</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>1.85</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>1</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>79.903999999999996</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>17</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>4</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>3</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>16</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>395</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>452</v>
       </c>
-      <c r="R42" t="str">
+      <c r="S42" t="str">
         <f t="shared" si="1"/>
         <v>public Element Br { get; private set; } // Bromine - Atomic Number 35</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>138</v>
       </c>
@@ -4735,48 +4864,51 @@
       <c r="D43" t="b">
         <v>0</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
         <v>140</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>1.1599999999999999</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>2.02</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
       <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
         <v>83.798000000000002</v>
       </c>
-      <c r="J43" s="1">
-        <v>0</v>
-      </c>
-      <c r="L43">
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43">
         <v>18</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>4</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>3</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>17</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>391</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>453</v>
       </c>
-      <c r="R43" t="str">
+      <c r="S43" t="str">
         <f t="shared" si="1"/>
         <v>public Element Kr { get; private set; } // Krypton - Atomic Number 36</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>141</v>
       </c>
@@ -4789,48 +4921,51 @@
       <c r="D44" t="b">
         <v>0</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
         <v>143</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>85.467799999999997</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>1</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>5</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>4</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="s">
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="s">
         <v>392</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>454</v>
       </c>
-      <c r="R44" t="str">
+      <c r="S44" t="str">
         <f t="shared" si="1"/>
         <v>public Element Rb { get; private set; } // Rubidium - Atomic Number 37</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>145</v>
       </c>
@@ -4843,48 +4978,51 @@
       <c r="D45" t="b">
         <v>0</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
         <v>147</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>1.95</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <v>87.62</v>
       </c>
-      <c r="J45" s="1">
+      <c r="K45" s="1">
         <v>2</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>2</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>5</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>4</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>1</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>393</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>455</v>
       </c>
-      <c r="R45" t="str">
+      <c r="S45" t="str">
         <f t="shared" si="1"/>
         <v>public Element Sr { get; private set; } // Strontium - Atomic Number 38</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>148</v>
       </c>
@@ -4897,48 +5035,51 @@
       <c r="D46" t="b">
         <v>0</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
         <v>150</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>1.9</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <v>88.905850000000001</v>
       </c>
-      <c r="J46" s="1">
+      <c r="K46" s="1">
         <v>3</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>3</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>5</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>4</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>2</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>397</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>456</v>
       </c>
-      <c r="R46" t="str">
+      <c r="S46" t="str">
         <f t="shared" si="1"/>
         <v>public Element Y { get; private set; } // Yttrium - Atomic Number 39</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>151</v>
       </c>
@@ -4951,48 +5092,51 @@
       <c r="D47" t="b">
         <v>0</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
         <v>153</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>1.75</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
         <v>91.224000000000004</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>4</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>5</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>4</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>3</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>397</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>457</v>
       </c>
-      <c r="R47" t="str">
+      <c r="S47" t="str">
         <f t="shared" si="1"/>
         <v>public Element Zr { get; private set; } // Zirconium - Atomic Number 40</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>154</v>
       </c>
@@ -5005,48 +5149,51 @@
       <c r="D48" t="b">
         <v>0</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
         <v>156</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>1.64</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>1</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>92.906379999999999</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="K48" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="L48">
-        <v>5</v>
       </c>
       <c r="M48">
         <v>5</v>
       </c>
       <c r="N48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O48">
         <v>4</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P48">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="s">
         <v>397</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
         <v>458</v>
       </c>
-      <c r="R48" t="str">
+      <c r="S48" t="str">
         <f t="shared" si="1"/>
         <v>public Element Nb { get; private set; } // Niobium - Atomic Number 41</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>158</v>
       </c>
@@ -5059,48 +5206,51 @@
       <c r="D49" t="b">
         <v>0</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
         <v>160</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>1.54</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>2</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>95.96</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>6</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>5</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>4</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>5</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>397</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="R49" t="s">
         <v>459</v>
       </c>
-      <c r="R49" t="str">
+      <c r="S49" t="str">
         <f t="shared" si="1"/>
         <v>public Element Mo { get; private set; } // Molybdenum - Atomic Number 42</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>161</v>
       </c>
@@ -5113,48 +5263,51 @@
       <c r="D50" t="b">
         <v>0</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
         <v>163</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>1.47</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>3</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>97</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>7</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>5</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>4</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>6</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>397</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>460</v>
       </c>
-      <c r="R50" t="str">
+      <c r="S50" t="str">
         <f t="shared" si="1"/>
         <v>public Element Tc { get; private set; } // Technetium - Atomic Number 43</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>164</v>
       </c>
@@ -5167,48 +5320,51 @@
       <c r="D51" t="b">
         <v>0</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
         <v>166</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>1.46</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>2</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>101.07</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>8</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>5</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>4</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>7</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>397</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="R51" t="s">
         <v>461</v>
       </c>
-      <c r="R51" t="str">
+      <c r="S51" t="str">
         <f t="shared" si="1"/>
         <v>public Element Ru { get; private set; } // Ruthenium - Atomic Number 44</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>167</v>
       </c>
@@ -5221,48 +5377,51 @@
       <c r="D52" t="b">
         <v>0</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
         <v>169</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>1.42</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>1</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>102.9055</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="K52" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>9</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>5</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>4</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>8</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>397</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>462</v>
       </c>
-      <c r="R52" t="str">
+      <c r="S52" t="str">
         <f t="shared" si="1"/>
         <v>public Element Rh { get; private set; } // Rhodium - Atomic Number 45</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>171</v>
       </c>
@@ -5275,48 +5434,51 @@
       <c r="D53" t="b">
         <v>0</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
         <v>173</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>1.39</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>1.63</v>
       </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
       <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
         <v>106.42</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="K53" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>10</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>5</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>4</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>9</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>397</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="R53" t="s">
         <v>463</v>
       </c>
-      <c r="R53" t="str">
+      <c r="S53" t="str">
         <f t="shared" si="1"/>
         <v>public Element Pd { get; private set; } // Palladium - Atomic Number 46</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>174</v>
       </c>
@@ -5329,48 +5491,51 @@
       <c r="D54" t="b">
         <v>0</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
         <v>176</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>1.45</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>1.72</v>
       </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
       <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
         <v>107.8682</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="K54" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>11</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>5</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>4</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>10</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>397</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>464</v>
       </c>
-      <c r="R54" t="str">
+      <c r="S54" t="str">
         <f t="shared" si="1"/>
         <v>public Element Ag { get; private set; } // Silver - Atomic Number 47</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>177</v>
       </c>
@@ -5383,48 +5548,51 @@
       <c r="D55" t="b">
         <v>0</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
         <v>179</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>1.44</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>1.58</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
       <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
         <v>112.411</v>
       </c>
-      <c r="J55" s="1">
+      <c r="K55" s="1">
         <v>2</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>12</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>5</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>4</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>11</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>397</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>465</v>
       </c>
-      <c r="R55" t="str">
+      <c r="S55" t="str">
         <f t="shared" si="1"/>
         <v>public Element Cd { get; private set; } // Cadmium - Atomic Number 48</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -5437,48 +5605,51 @@
       <c r="D56" t="b">
         <v>0</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
         <v>182</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>1.42</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>1.93</v>
       </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
       <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
         <v>114.818</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>13</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>5</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>4</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>12</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>396</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>466</v>
       </c>
-      <c r="R56" t="str">
+      <c r="S56" t="str">
         <f t="shared" si="1"/>
         <v>public Element In { get; private set; } // Indium - Atomic Number 49</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>184</v>
       </c>
@@ -5491,48 +5662,51 @@
       <c r="D57" t="b">
         <v>0</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
         <v>186</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>1.39</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>2.17</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>4</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>118.71</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="K57" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>14</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>5</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>4</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>13</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>396</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>467</v>
       </c>
-      <c r="R57" t="str">
+      <c r="S57" t="str">
         <f t="shared" si="1"/>
         <v>public Element Sn { get; private set; } // Tin - Atomic Number 50</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>187</v>
       </c>
@@ -5545,48 +5719,51 @@
       <c r="D58" t="b">
         <v>0</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
         <v>189</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>1.39</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
       <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
         <v>3</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>121.76</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="K58" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>15</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>5</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>4</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>14</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>394</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R58" t="s">
         <v>468</v>
       </c>
-      <c r="R58" t="str">
+      <c r="S58" t="str">
         <f t="shared" si="1"/>
         <v>public Element Sb { get; private set; } // Antimony - Atomic Number 51</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>190</v>
       </c>
@@ -5599,48 +5776,51 @@
       <c r="D59" t="b">
         <v>1</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
         <v>192</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>1.38</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>2.06</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>2</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>127.6</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>16</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>5</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>4</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>15</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>394</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>469</v>
       </c>
-      <c r="R59" t="str">
+      <c r="S59" t="str">
         <f t="shared" si="1"/>
         <v>public Element Te { get; private set; } // Tellurium - Atomic Number 52</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>193</v>
       </c>
@@ -5653,48 +5833,51 @@
       <c r="D60" t="b">
         <v>1</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
         <v>195</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>1.39</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>1.98</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>1</v>
       </c>
-      <c r="I60" s="2">
+      <c r="J60">
         <v>126.90447</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>17</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>5</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>4</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>16</v>
       </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
         <v>395</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="R60" t="s">
         <v>470</v>
       </c>
-      <c r="R60" t="str">
+      <c r="S60" t="str">
         <f t="shared" si="1"/>
         <v>public Element I { get; private set; } // Iodine - Atomic Number 53</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>196</v>
       </c>
@@ -5707,48 +5890,51 @@
       <c r="D61" t="b">
         <v>0</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
         <v>198</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>1.4</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>2.16</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
       <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
         <v>131.29300000000001</v>
       </c>
-      <c r="J61" s="1">
-        <v>0</v>
-      </c>
-      <c r="L61">
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="M61">
         <v>18</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>5</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>4</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>17</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>391</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>471</v>
       </c>
-      <c r="R61" t="str">
+      <c r="S61" t="str">
         <f t="shared" si="1"/>
         <v>public Element Xe { get; private set; } // Xenon - Atomic Number 54</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>199</v>
       </c>
@@ -5761,48 +5947,51 @@
       <c r="D62" t="b">
         <v>0</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
         <v>201</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>2.44</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
         <v>132.9054519</v>
       </c>
-      <c r="J62" s="1">
+      <c r="K62" s="1">
         <v>1</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>1</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>6</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>5</v>
       </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62" t="s">
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="s">
         <v>392</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="R62" t="s">
         <v>472</v>
       </c>
-      <c r="R62" t="str">
+      <c r="S62" t="str">
         <f t="shared" si="1"/>
         <v>public Element Cs { get; private set; } // Cesium - Atomic Number 55</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>202</v>
       </c>
@@ -5815,48 +6004,51 @@
       <c r="D63" t="b">
         <v>0</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
         <v>204</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>2.15</v>
       </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
         <v>137.327</v>
       </c>
-      <c r="J63" s="1">
+      <c r="K63" s="1">
         <v>2</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>2</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>6</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>5</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>1</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>393</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="R63" t="s">
         <v>473</v>
       </c>
-      <c r="R63" t="str">
+      <c r="S63" t="str">
         <f t="shared" si="1"/>
         <v>public Element Ba { get; private set; } // Barium - Atomic Number 56</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>205</v>
       </c>
@@ -5869,48 +6061,51 @@
       <c r="D64" t="b">
         <v>0</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
         <v>207</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>2.0699999999999998</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
         <v>138.90547000000001</v>
       </c>
-      <c r="J64" s="1">
+      <c r="K64" s="1">
         <v>3</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>3</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>6</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>7</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>2</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>398</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="R64" t="s">
         <v>474</v>
       </c>
-      <c r="R64" t="str">
+      <c r="S64" t="str">
         <f t="shared" si="1"/>
         <v>public Element La { get; private set; } // Lanthanum - Atomic Number 57</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>208</v>
       </c>
@@ -5923,48 +6118,51 @@
       <c r="D65" t="b">
         <v>0</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
         <v>210</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>2.04</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
         <v>140.11600000000001</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="K65" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>3</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>6</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>7</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>3</v>
       </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
         <v>398</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="R65" t="s">
         <v>475</v>
       </c>
-      <c r="R65" t="str">
+      <c r="S65" t="str">
         <f t="shared" si="1"/>
         <v>public Element Ce { get; private set; } // Cerium - Atomic Number 58</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>212</v>
       </c>
@@ -5977,48 +6175,51 @@
       <c r="D66" t="b">
         <v>0</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
         <v>214</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>2.0299999999999998</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
         <v>140.90764999999999</v>
       </c>
-      <c r="J66" s="1">
+      <c r="K66" s="1">
         <v>3</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>3</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>6</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>7</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>4</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>398</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
         <v>476</v>
       </c>
-      <c r="R66" t="str">
-        <f t="shared" ref="R66:R97" si="2">CONCATENATE("public Element ", A66, " { get; private set; } // ",B66," - Atomic Number ", C66)</f>
+      <c r="S66" t="str">
+        <f t="shared" ref="S66:S97" si="2">CONCATENATE("public Element ", A66, " { get; private set; } // ",B66," - Atomic Number ", C66)</f>
         <v>public Element Pr { get; private set; } // Praseodymium - Atomic Number 59</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>215</v>
       </c>
@@ -6031,48 +6232,51 @@
       <c r="D67" t="b">
         <v>0</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
         <v>217</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>2.0099999999999998</v>
       </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
         <v>144.24199999999999</v>
       </c>
-      <c r="J67" s="1">
+      <c r="K67" s="1">
         <v>3</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>3</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>6</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>7</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>5</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>398</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="R67" t="s">
         <v>477</v>
       </c>
-      <c r="R67" t="str">
+      <c r="S67" t="str">
         <f t="shared" si="2"/>
         <v>public Element Nd { get; private set; } // Neodymium - Atomic Number 60</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>218</v>
       </c>
@@ -6085,48 +6289,51 @@
       <c r="D68" t="b">
         <v>0</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
         <v>220</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>1.99</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
         <v>144.91274899999999</v>
       </c>
-      <c r="J68" s="1">
+      <c r="K68" s="1">
         <v>3</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>3</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>6</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>7</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>6</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>398</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="R68" t="s">
         <v>478</v>
       </c>
-      <c r="R68" t="str">
+      <c r="S68" t="str">
         <f t="shared" si="2"/>
         <v>public Element Pm { get; private set; } // Promethium - Atomic Number 61</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>221</v>
       </c>
@@ -6139,48 +6346,51 @@
       <c r="D69" t="b">
         <v>0</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
         <v>223</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>1.98</v>
       </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
         <v>150.36000000000001</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="K69" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>3</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>6</v>
-      </c>
-      <c r="N69">
-        <v>7</v>
       </c>
       <c r="O69">
         <v>7</v>
       </c>
-      <c r="P69" t="s">
+      <c r="P69">
+        <v>7</v>
+      </c>
+      <c r="Q69" t="s">
         <v>398</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="R69" t="s">
         <v>479</v>
       </c>
-      <c r="R69" t="str">
+      <c r="S69" t="str">
         <f t="shared" si="2"/>
         <v>public Element Sm { get; private set; } // Samarium - Atomic Number 62</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>224</v>
       </c>
@@ -6193,48 +6403,51 @@
       <c r="D70" t="b">
         <v>0</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
         <v>226</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>1.98</v>
       </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
         <v>151.964</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="K70" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>3</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>6</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>7</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>8</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>398</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="R70" t="s">
         <v>480</v>
       </c>
-      <c r="R70" t="str">
+      <c r="S70" t="str">
         <f t="shared" si="2"/>
         <v>public Element Eu { get; private set; } // Europium - Atomic Number 63</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>227</v>
       </c>
@@ -6247,48 +6460,51 @@
       <c r="D71" t="b">
         <v>0</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
         <v>229</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>1.96</v>
       </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
         <v>157.25</v>
       </c>
-      <c r="J71" s="1">
+      <c r="K71" s="1">
         <v>3</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>3</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>6</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>7</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>9</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>398</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="R71" t="s">
         <v>481</v>
       </c>
-      <c r="R71" t="str">
+      <c r="S71" t="str">
         <f t="shared" si="2"/>
         <v>public Element Gd { get; private set; } // Gadolinium - Atomic Number 64</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>230</v>
       </c>
@@ -6301,48 +6517,51 @@
       <c r="D72" t="b">
         <v>0</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
         <v>232</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>1.94</v>
       </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
         <v>158.92535000000001</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="K72" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>3</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>6</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>7</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>10</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>398</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="R72" t="s">
         <v>482</v>
       </c>
-      <c r="R72" t="str">
+      <c r="S72" t="str">
         <f t="shared" si="2"/>
         <v>public Element Tb { get; private set; } // Terbium - Atomic Number 65</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>233</v>
       </c>
@@ -6355,48 +6574,51 @@
       <c r="D73" t="b">
         <v>0</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
         <v>235</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>1.92</v>
       </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
         <v>162.5</v>
       </c>
-      <c r="J73" s="1">
+      <c r="K73" s="1">
         <v>3</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>3</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>6</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>7</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>11</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>398</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="R73" t="s">
         <v>483</v>
       </c>
-      <c r="R73" t="str">
+      <c r="S73" t="str">
         <f t="shared" si="2"/>
         <v>public Element Dy { get; private set; } // Dysprosium - Atomic Number 66</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>236</v>
       </c>
@@ -6409,48 +6631,51 @@
       <c r="D74" t="b">
         <v>0</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
         <v>238</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>1.92</v>
       </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
         <v>164.93031999999999</v>
       </c>
-      <c r="J74" s="1">
+      <c r="K74" s="1">
         <v>3</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>3</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>6</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>7</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>12</v>
       </c>
-      <c r="P74" t="s">
+      <c r="Q74" t="s">
         <v>398</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="R74" t="s">
         <v>484</v>
       </c>
-      <c r="R74" t="str">
+      <c r="S74" t="str">
         <f t="shared" si="2"/>
         <v>public Element Ho { get; private set; } // Holmium - Atomic Number 67</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>239</v>
       </c>
@@ -6463,48 +6688,51 @@
       <c r="D75" t="b">
         <v>0</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
         <v>241</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>1.89</v>
       </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
         <v>167.25899999999999</v>
       </c>
-      <c r="J75" s="1">
+      <c r="K75" s="1">
         <v>3</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>3</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>6</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>7</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>13</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>398</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="R75" t="s">
         <v>485</v>
       </c>
-      <c r="R75" t="str">
+      <c r="S75" t="str">
         <f t="shared" si="2"/>
         <v>public Element Er { get; private set; } // Erbium - Atomic Number 68</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>242</v>
       </c>
@@ -6517,48 +6745,51 @@
       <c r="D76" t="b">
         <v>0</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
         <v>244</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>1.9</v>
       </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
         <v>168.93421000000001</v>
       </c>
-      <c r="J76" s="1">
+      <c r="K76" s="1">
         <v>3</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>3</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>6</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>7</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>14</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
         <v>398</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="R76" t="s">
         <v>486</v>
       </c>
-      <c r="R76" t="str">
+      <c r="S76" t="str">
         <f t="shared" si="2"/>
         <v>public Element Tm { get; private set; } // Thulium - Atomic Number 69</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>245</v>
       </c>
@@ -6571,48 +6802,51 @@
       <c r="D77" t="b">
         <v>0</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
         <v>247</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>1.87</v>
       </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
         <v>173.054</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="K77" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>3</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>6</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>7</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>15</v>
       </c>
-      <c r="P77" t="s">
+      <c r="Q77" t="s">
         <v>398</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="R77" t="s">
         <v>487</v>
       </c>
-      <c r="R77" t="str">
+      <c r="S77" t="str">
         <f t="shared" si="2"/>
         <v>public Element Yb { get; private set; } // Ytterbium - Atomic Number 70</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>248</v>
       </c>
@@ -6625,48 +6859,51 @@
       <c r="D78" t="b">
         <v>0</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
         <v>250</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>1.87</v>
       </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
         <v>174.96680000000001</v>
       </c>
-      <c r="J78" s="1">
+      <c r="K78" s="1">
         <v>3</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>3</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>6</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>5</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>2</v>
       </c>
-      <c r="P78" t="s">
+      <c r="Q78" t="s">
         <v>397</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="R78" t="s">
         <v>488</v>
       </c>
-      <c r="R78" t="str">
+      <c r="S78" t="str">
         <f t="shared" si="2"/>
         <v>public Element Lu { get; private set; } // Lutetium - Atomic Number 71</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>251</v>
       </c>
@@ -6679,48 +6916,51 @@
       <c r="D79" t="b">
         <v>0</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
         <v>253</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>1.75</v>
       </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
         <v>178.49</v>
       </c>
-      <c r="J79" s="1">
+      <c r="K79" s="1">
         <v>4</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>4</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>6</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>5</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>3</v>
       </c>
-      <c r="P79" t="s">
+      <c r="Q79" t="s">
         <v>397</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="R79" t="s">
         <v>489</v>
       </c>
-      <c r="R79" t="str">
+      <c r="S79" t="str">
         <f t="shared" si="2"/>
         <v>public Element Hf { get; private set; } // Hafnium - Atomic Number 72</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>254</v>
       </c>
@@ -6733,48 +6973,51 @@
       <c r="D80" t="b">
         <v>0</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
         <v>256</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>1.7</v>
       </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
       <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
         <v>1</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>180.94788</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="K80" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>5</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>6</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>5</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>4</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" t="s">
         <v>397</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="R80" t="s">
         <v>490</v>
       </c>
-      <c r="R80" t="str">
+      <c r="S80" t="str">
         <f t="shared" si="2"/>
         <v>public Element Ta { get; private set; } // Tantalum - Atomic Number 73</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>257</v>
       </c>
@@ -6787,48 +7030,51 @@
       <c r="D81" t="b">
         <v>0</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
         <v>259</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>1.62</v>
       </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
       <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
         <v>2</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>183.84</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="K81" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="L81">
-        <v>6</v>
       </c>
       <c r="M81">
         <v>6</v>
       </c>
       <c r="N81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O81">
         <v>5</v>
       </c>
-      <c r="P81" t="s">
+      <c r="P81">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="s">
         <v>397</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="R81" t="s">
         <v>491</v>
       </c>
-      <c r="R81" t="str">
+      <c r="S81" t="str">
         <f t="shared" si="2"/>
         <v>public Element W { get; private set; } // Tungsten - Atomic Number 74</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>260</v>
       </c>
@@ -6841,48 +7087,51 @@
       <c r="D82" t="b">
         <v>0</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
         <v>262</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>1.51</v>
       </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
       <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
         <v>3</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>186.20699999999999</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="K82" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>7</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>6</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>5</v>
       </c>
-      <c r="O82">
+      <c r="P82">
         <v>6</v>
       </c>
-      <c r="P82" t="s">
+      <c r="Q82" t="s">
         <v>397</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="R82" t="s">
         <v>492</v>
       </c>
-      <c r="R82" t="str">
+      <c r="S82" t="str">
         <f t="shared" si="2"/>
         <v>public Element Re { get; private set; } // Rhenium - Atomic Number 75</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>263</v>
       </c>
@@ -6895,48 +7144,51 @@
       <c r="D83" t="b">
         <v>0</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
         <v>265</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>1.44</v>
       </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
       <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
         <v>2</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>190.23</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="K83" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>8</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>6</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>5</v>
       </c>
-      <c r="O83">
+      <c r="P83">
         <v>7</v>
       </c>
-      <c r="P83" t="s">
+      <c r="Q83" t="s">
         <v>397</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="R83" t="s">
         <v>493</v>
       </c>
-      <c r="R83" t="str">
+      <c r="S83" t="str">
         <f t="shared" si="2"/>
         <v>public Element Os { get; private set; } // Osmium - Atomic Number 76</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>267</v>
       </c>
@@ -6949,48 +7201,51 @@
       <c r="D84" t="b">
         <v>0</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
         <v>269</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>1.41</v>
       </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
       <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
         <v>3</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>192.21700000000001</v>
       </c>
-      <c r="J84" s="1">
+      <c r="K84" s="1">
         <v>3</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>9</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <v>6</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <v>5</v>
       </c>
-      <c r="O84">
+      <c r="P84">
         <v>8</v>
       </c>
-      <c r="P84" t="s">
+      <c r="Q84" t="s">
         <v>397</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="R84" t="s">
         <v>494</v>
       </c>
-      <c r="R84" t="str">
+      <c r="S84" t="str">
         <f t="shared" si="2"/>
         <v>public Element Ir { get; private set; } // Iridium - Atomic Number 77</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>270</v>
       </c>
@@ -7003,48 +7258,51 @@
       <c r="D85" t="b">
         <v>0</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
         <v>272</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>1.36</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>1.75</v>
       </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
       <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
         <v>195.084</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="K85" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>10</v>
       </c>
-      <c r="M85">
+      <c r="N85">
         <v>6</v>
       </c>
-      <c r="N85">
+      <c r="O85">
         <v>5</v>
       </c>
-      <c r="O85">
+      <c r="P85">
         <v>9</v>
       </c>
-      <c r="P85" t="s">
+      <c r="Q85" t="s">
         <v>397</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="R85" t="s">
         <v>495</v>
       </c>
-      <c r="R85" t="str">
+      <c r="S85" t="str">
         <f t="shared" si="2"/>
         <v>public Element Pt { get; private set; } // Platinum - Atomic Number 78</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>273</v>
       </c>
@@ -7057,48 +7315,51 @@
       <c r="D86" t="b">
         <v>0</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
         <v>275</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>1.36</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>1.66</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>1</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>196.96656899999999</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="K86" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>11</v>
       </c>
-      <c r="M86">
+      <c r="N86">
         <v>6</v>
       </c>
-      <c r="N86">
+      <c r="O86">
         <v>5</v>
       </c>
-      <c r="O86">
+      <c r="P86">
         <v>10</v>
       </c>
-      <c r="P86" t="s">
+      <c r="Q86" t="s">
         <v>397</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="R86" t="s">
         <v>496</v>
       </c>
-      <c r="R86" t="str">
+      <c r="S86" t="str">
         <f t="shared" si="2"/>
         <v>public Element Au { get; private set; } // Gold - Atomic Number 79</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>277</v>
       </c>
@@ -7111,48 +7372,51 @@
       <c r="D87" t="b">
         <v>0</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" t="s">
         <v>279</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>1.32</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>1.55</v>
       </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
       <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
         <v>200.59200000000001</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="K87" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>12</v>
       </c>
-      <c r="M87">
+      <c r="N87">
         <v>6</v>
       </c>
-      <c r="N87">
+      <c r="O87">
         <v>5</v>
       </c>
-      <c r="O87">
+      <c r="P87">
         <v>11</v>
       </c>
-      <c r="P87" t="s">
+      <c r="Q87" t="s">
         <v>397</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="R87" t="s">
         <v>497</v>
       </c>
-      <c r="R87" t="str">
+      <c r="S87" t="str">
         <f t="shared" si="2"/>
         <v>public Element Hg { get; private set; } // Mercury - Atomic Number 80</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>280</v>
       </c>
@@ -7165,48 +7429,51 @@
       <c r="D88" t="b">
         <v>0</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
         <v>282</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>1.45</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>1.96</v>
       </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
       <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
         <v>204.38</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="K88" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>13</v>
       </c>
-      <c r="M88">
+      <c r="N88">
         <v>6</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <v>5</v>
       </c>
-      <c r="O88">
+      <c r="P88">
         <v>12</v>
       </c>
-      <c r="P88" t="s">
+      <c r="Q88" t="s">
         <v>396</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="R88" t="s">
         <v>498</v>
       </c>
-      <c r="R88" t="str">
+      <c r="S88" t="str">
         <f t="shared" si="2"/>
         <v>public Element Tl { get; private set; } // Thallium - Atomic Number 81</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>283</v>
       </c>
@@ -7219,48 +7486,51 @@
       <c r="D89" t="b">
         <v>0</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
         <v>285</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>1.46</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>2.02</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>4</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>207.2</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="K89" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>14</v>
       </c>
-      <c r="M89">
+      <c r="N89">
         <v>6</v>
       </c>
-      <c r="N89">
+      <c r="O89">
         <v>5</v>
       </c>
-      <c r="O89">
+      <c r="P89">
         <v>13</v>
       </c>
-      <c r="P89" t="s">
+      <c r="Q89" t="s">
         <v>396</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="R89" t="s">
         <v>499</v>
       </c>
-      <c r="R89" t="str">
+      <c r="S89" t="str">
         <f t="shared" si="2"/>
         <v>public Element Pb { get; private set; } // Lead - Atomic Number 82</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>286</v>
       </c>
@@ -7273,48 +7543,51 @@
       <c r="D90" t="b">
         <v>0</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
         <v>288</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>1.48</v>
       </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
       <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
         <v>3</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>208.9804</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="K90" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>15</v>
       </c>
-      <c r="M90">
+      <c r="N90">
         <v>6</v>
       </c>
-      <c r="N90">
+      <c r="O90">
         <v>5</v>
       </c>
-      <c r="O90">
+      <c r="P90">
         <v>14</v>
       </c>
-      <c r="P90" t="s">
+      <c r="Q90" t="s">
         <v>396</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="R90" t="s">
         <v>500</v>
       </c>
-      <c r="R90" t="str">
+      <c r="S90" t="str">
         <f t="shared" si="2"/>
         <v>public Element Bi { get; private set; } // Bismuth - Atomic Number 83</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>289</v>
       </c>
@@ -7327,48 +7600,51 @@
       <c r="D91" t="b">
         <v>0</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
         <v>291</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>1.4</v>
       </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
       <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
         <v>2</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>209</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="K91" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>16</v>
       </c>
-      <c r="M91">
+      <c r="N91">
         <v>6</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <v>5</v>
       </c>
-      <c r="O91">
+      <c r="P91">
         <v>15</v>
       </c>
-      <c r="P91" t="s">
+      <c r="Q91" t="s">
         <v>394</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="R91" t="s">
         <v>501</v>
       </c>
-      <c r="R91" t="str">
+      <c r="S91" t="str">
         <f t="shared" si="2"/>
         <v>public Element Po { get; private set; } // Polonium - Atomic Number 84</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>292</v>
       </c>
@@ -7381,48 +7657,51 @@
       <c r="D92" t="b">
         <v>1</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
         <v>294</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>1.5</v>
       </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
       <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
         <v>1</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>210</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="K92" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>17</v>
       </c>
-      <c r="M92">
+      <c r="N92">
         <v>6</v>
       </c>
-      <c r="N92">
+      <c r="O92">
         <v>5</v>
       </c>
-      <c r="O92">
+      <c r="P92">
         <v>16</v>
       </c>
-      <c r="P92" t="s">
+      <c r="Q92" t="s">
         <v>395</v>
       </c>
-      <c r="Q92" t="s">
+      <c r="R92" t="s">
         <v>502</v>
       </c>
-      <c r="R92" t="str">
+      <c r="S92" t="str">
         <f t="shared" si="2"/>
         <v>public Element At { get; private set; } // Astatine - Atomic Number 85</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>295</v>
       </c>
@@ -7435,48 +7714,51 @@
       <c r="D93" t="b">
         <v>0</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
         <v>297</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>1.5</v>
       </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
         <v>222</v>
       </c>
-      <c r="J93" s="1">
-        <v>0</v>
-      </c>
-      <c r="L93">
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+      <c r="M93">
         <v>18</v>
       </c>
-      <c r="M93">
+      <c r="N93">
         <v>6</v>
       </c>
-      <c r="N93">
+      <c r="O93">
         <v>5</v>
       </c>
-      <c r="O93">
+      <c r="P93">
         <v>17</v>
       </c>
-      <c r="P93" t="s">
+      <c r="Q93" t="s">
         <v>391</v>
       </c>
-      <c r="Q93" t="s">
+      <c r="R93" t="s">
         <v>503</v>
       </c>
-      <c r="R93" t="str">
+      <c r="S93" t="str">
         <f t="shared" si="2"/>
         <v>public Element Rn { get; private set; } // Radon - Atomic Number 86</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>298</v>
       </c>
@@ -7489,48 +7771,51 @@
       <c r="D94" t="b">
         <v>0</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
         <v>300</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>2.6</v>
       </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
         <v>223</v>
       </c>
-      <c r="J94" s="1">
+      <c r="K94" s="1">
         <v>1</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <v>1</v>
       </c>
-      <c r="M94">
+      <c r="N94">
         <v>7</v>
       </c>
-      <c r="N94">
+      <c r="O94">
         <v>6</v>
       </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-      <c r="P94" t="s">
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="s">
         <v>392</v>
       </c>
-      <c r="Q94" t="s">
+      <c r="R94" t="s">
         <v>504</v>
       </c>
-      <c r="R94" t="str">
+      <c r="S94" t="str">
         <f t="shared" si="2"/>
         <v>public Element Fr { get; private set; } // Francium - Atomic Number 87</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>301</v>
       </c>
@@ -7543,48 +7828,51 @@
       <c r="D95" t="b">
         <v>0</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
         <v>303</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>2.21</v>
       </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
         <v>226</v>
       </c>
-      <c r="J95" s="1">
+      <c r="K95" s="1">
         <v>2</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <v>2</v>
       </c>
-      <c r="M95">
+      <c r="N95">
         <v>7</v>
       </c>
-      <c r="N95">
+      <c r="O95">
         <v>6</v>
       </c>
-      <c r="O95">
+      <c r="P95">
         <v>1</v>
       </c>
-      <c r="P95" t="s">
+      <c r="Q95" t="s">
         <v>393</v>
       </c>
-      <c r="Q95" t="s">
+      <c r="R95" t="s">
         <v>505</v>
       </c>
-      <c r="R95" t="str">
+      <c r="S95" t="str">
         <f t="shared" si="2"/>
         <v>public Element Ra { get; private set; } // Radium - Atomic Number 88</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>304</v>
       </c>
@@ -7597,48 +7885,51 @@
       <c r="D96" t="b">
         <v>0</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
         <v>306</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>2.15</v>
       </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
         <v>227</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="K96" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <v>3</v>
       </c>
-      <c r="M96">
+      <c r="N96">
         <v>7</v>
       </c>
-      <c r="N96">
+      <c r="O96">
         <v>8</v>
       </c>
-      <c r="O96">
+      <c r="P96">
         <v>2</v>
       </c>
-      <c r="P96" t="s">
+      <c r="Q96" t="s">
         <v>399</v>
       </c>
-      <c r="Q96" t="s">
+      <c r="R96" t="s">
         <v>506</v>
       </c>
-      <c r="R96" t="str">
+      <c r="S96" t="str">
         <f t="shared" si="2"/>
         <v>public Element Ac { get; private set; } // Actinium - Atomic Number 89</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>307</v>
       </c>
@@ -7651,48 +7942,51 @@
       <c r="D97" t="b">
         <v>0</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
         <v>309</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>2.06</v>
       </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
         <v>232.03806</v>
       </c>
-      <c r="J97" s="1">
+      <c r="K97" s="1">
         <v>4</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <v>3</v>
       </c>
-      <c r="M97">
+      <c r="N97">
         <v>7</v>
       </c>
-      <c r="N97">
+      <c r="O97">
         <v>8</v>
       </c>
-      <c r="O97">
+      <c r="P97">
         <v>3</v>
       </c>
-      <c r="P97" t="s">
+      <c r="Q97" t="s">
         <v>399</v>
       </c>
-      <c r="Q97" t="s">
+      <c r="R97" t="s">
         <v>507</v>
       </c>
-      <c r="R97" t="str">
+      <c r="S97" t="str">
         <f t="shared" si="2"/>
         <v>public Element Th { get; private set; } // Thorium - Atomic Number 90</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>310</v>
       </c>
@@ -7705,48 +7999,51 @@
       <c r="D98" t="b">
         <v>0</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
         <v>312</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>2</v>
       </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
         <v>231.03587999999999</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="K98" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="L98">
+      <c r="M98">
         <v>3</v>
       </c>
-      <c r="M98">
+      <c r="N98">
         <v>7</v>
       </c>
-      <c r="N98">
+      <c r="O98">
         <v>8</v>
       </c>
-      <c r="O98">
+      <c r="P98">
         <v>4</v>
       </c>
-      <c r="P98" t="s">
+      <c r="Q98" t="s">
         <v>399</v>
       </c>
-      <c r="Q98" t="s">
+      <c r="R98" t="s">
         <v>508</v>
       </c>
-      <c r="R98" t="str">
-        <f t="shared" ref="R98:R125" si="3">CONCATENATE("public Element ", A98, " { get; private set; } // ",B98," - Atomic Number ", C98)</f>
+      <c r="S98" t="str">
+        <f t="shared" ref="S98:S125" si="3">CONCATENATE("public Element ", A98, " { get; private set; } // ",B98," - Atomic Number ", C98)</f>
         <v>public Element Pa { get; private set; } // Protactinium - Atomic Number 91</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>314</v>
       </c>
@@ -7759,51 +8056,54 @@
       <c r="D99" t="b">
         <v>0</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
         <v>316</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>1.96</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>1.86</v>
       </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
       <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
         <v>238.02891</v>
       </c>
-      <c r="J99" s="1" t="s">
+      <c r="K99" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K99" s="1" t="s">
+      <c r="L99" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="L99">
+      <c r="M99">
         <v>3</v>
       </c>
-      <c r="M99">
+      <c r="N99">
         <v>7</v>
       </c>
-      <c r="N99">
+      <c r="O99">
         <v>8</v>
       </c>
-      <c r="O99">
+      <c r="P99">
         <v>5</v>
       </c>
-      <c r="P99" t="s">
+      <c r="Q99" t="s">
         <v>399</v>
       </c>
-      <c r="Q99" t="s">
+      <c r="R99" t="s">
         <v>509</v>
       </c>
-      <c r="R99" t="str">
+      <c r="S99" t="str">
         <f t="shared" si="3"/>
         <v>public Element U { get; private set; } // Uranium - Atomic Number 92</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>317</v>
       </c>
@@ -7816,48 +8116,51 @@
       <c r="D100" t="b">
         <v>0</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100" t="s">
         <v>319</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>1.9</v>
       </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
         <v>237</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="K100" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="L100">
+      <c r="M100">
         <v>3</v>
       </c>
-      <c r="M100">
+      <c r="N100">
         <v>7</v>
       </c>
-      <c r="N100">
+      <c r="O100">
         <v>8</v>
       </c>
-      <c r="O100">
+      <c r="P100">
         <v>6</v>
       </c>
-      <c r="P100" t="s">
+      <c r="Q100" t="s">
         <v>399</v>
       </c>
-      <c r="Q100" t="s">
+      <c r="R100" t="s">
         <v>510</v>
       </c>
-      <c r="R100" t="str">
+      <c r="S100" t="str">
         <f t="shared" si="3"/>
         <v>public Element Np { get; private set; } // Neptunium - Atomic Number 93</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>321</v>
       </c>
@@ -7870,48 +8173,51 @@
       <c r="D101" t="b">
         <v>0</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
         <v>323</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>1.87</v>
       </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
         <v>244</v>
       </c>
-      <c r="J101" s="1" t="s">
+      <c r="K101" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="L101">
+      <c r="M101">
         <v>3</v>
       </c>
-      <c r="M101">
+      <c r="N101">
         <v>7</v>
       </c>
-      <c r="N101">
+      <c r="O101">
         <v>8</v>
       </c>
-      <c r="O101">
+      <c r="P101">
         <v>7</v>
       </c>
-      <c r="P101" t="s">
+      <c r="Q101" t="s">
         <v>399</v>
       </c>
-      <c r="Q101" t="s">
+      <c r="R101" t="s">
         <v>511</v>
       </c>
-      <c r="R101" t="str">
+      <c r="S101" t="str">
         <f t="shared" si="3"/>
         <v>public Element Pu { get; private set; } // Plutonium - Atomic Number 94</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>324</v>
       </c>
@@ -7924,48 +8230,51 @@
       <c r="D102" t="b">
         <v>0</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" t="s">
         <v>326</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>1.8</v>
       </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
         <v>243</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="K102" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L102">
+      <c r="M102">
         <v>3</v>
       </c>
-      <c r="M102">
+      <c r="N102">
         <v>7</v>
-      </c>
-      <c r="N102">
-        <v>8</v>
       </c>
       <c r="O102">
         <v>8</v>
       </c>
-      <c r="P102" t="s">
+      <c r="P102">
+        <v>8</v>
+      </c>
+      <c r="Q102" t="s">
         <v>399</v>
       </c>
-      <c r="Q102" t="s">
+      <c r="R102" t="s">
         <v>512</v>
       </c>
-      <c r="R102" t="str">
+      <c r="S102" t="str">
         <f t="shared" si="3"/>
         <v>public Element Am { get; private set; } // Americium - Atomic Number 95</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>327</v>
       </c>
@@ -7978,48 +8287,51 @@
       <c r="D103" t="b">
         <v>0</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" t="s">
         <v>329</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>1.69</v>
       </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
         <v>247</v>
       </c>
-      <c r="J103" s="1" t="s">
+      <c r="K103" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L103">
+      <c r="M103">
         <v>3</v>
       </c>
-      <c r="M103">
+      <c r="N103">
         <v>7</v>
       </c>
-      <c r="N103">
+      <c r="O103">
         <v>8</v>
       </c>
-      <c r="O103">
+      <c r="P103">
         <v>9</v>
       </c>
-      <c r="P103" t="s">
+      <c r="Q103" t="s">
         <v>399</v>
       </c>
-      <c r="Q103" t="s">
+      <c r="R103" t="s">
         <v>513</v>
       </c>
-      <c r="R103" t="str">
+      <c r="S103" t="str">
         <f t="shared" si="3"/>
         <v>public Element Cm { get; private set; } // Curium - Atomic Number 96</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>330</v>
       </c>
@@ -8032,12 +8344,12 @@
       <c r="D104" t="b">
         <v>0</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" t="s">
         <v>332</v>
       </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
       <c r="G104">
         <v>0</v>
       </c>
@@ -8045,35 +8357,38 @@
         <v>0</v>
       </c>
       <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>247</v>
       </c>
-      <c r="J104" s="1" t="s">
+      <c r="K104" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L104">
+      <c r="M104">
         <v>3</v>
       </c>
-      <c r="M104">
+      <c r="N104">
         <v>7</v>
       </c>
-      <c r="N104">
+      <c r="O104">
         <v>8</v>
       </c>
-      <c r="O104">
+      <c r="P104">
         <v>10</v>
       </c>
-      <c r="P104" t="s">
+      <c r="Q104" t="s">
         <v>399</v>
       </c>
-      <c r="Q104" t="s">
+      <c r="R104" t="s">
         <v>514</v>
       </c>
-      <c r="R104" t="str">
+      <c r="S104" t="str">
         <f t="shared" si="3"/>
         <v>public Element Bk { get; private set; } // Berkelium - Atomic Number 97</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>333</v>
       </c>
@@ -8086,12 +8401,12 @@
       <c r="D105" t="b">
         <v>0</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" t="s">
         <v>335</v>
       </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
       <c r="G105">
         <v>0</v>
       </c>
@@ -8099,35 +8414,38 @@
         <v>0</v>
       </c>
       <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
         <v>251</v>
       </c>
-      <c r="J105" s="1" t="s">
+      <c r="K105" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L105">
+      <c r="M105">
         <v>3</v>
       </c>
-      <c r="M105">
+      <c r="N105">
         <v>7</v>
       </c>
-      <c r="N105">
+      <c r="O105">
         <v>8</v>
       </c>
-      <c r="O105">
+      <c r="P105">
         <v>11</v>
       </c>
-      <c r="P105" t="s">
+      <c r="Q105" t="s">
         <v>399</v>
       </c>
-      <c r="Q105" t="s">
+      <c r="R105" t="s">
         <v>515</v>
       </c>
-      <c r="R105" t="str">
+      <c r="S105" t="str">
         <f t="shared" si="3"/>
         <v>public Element Cf { get; private set; } // Californium - Atomic Number 98</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>336</v>
       </c>
@@ -8140,12 +8458,12 @@
       <c r="D106" t="b">
         <v>0</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" t="s">
         <v>338</v>
       </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
       <c r="G106">
         <v>0</v>
       </c>
@@ -8153,35 +8471,38 @@
         <v>0</v>
       </c>
       <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
         <v>252</v>
       </c>
-      <c r="J106" s="1" t="s">
+      <c r="K106" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L106">
+      <c r="M106">
         <v>3</v>
       </c>
-      <c r="M106">
+      <c r="N106">
         <v>7</v>
       </c>
-      <c r="N106">
+      <c r="O106">
         <v>8</v>
       </c>
-      <c r="O106">
+      <c r="P106">
         <v>12</v>
       </c>
-      <c r="P106" t="s">
+      <c r="Q106" t="s">
         <v>399</v>
       </c>
-      <c r="Q106" t="s">
+      <c r="R106" t="s">
         <v>516</v>
       </c>
-      <c r="R106" t="str">
+      <c r="S106" t="str">
         <f t="shared" si="3"/>
         <v>public Element Es { get; private set; } // Einsteinium - Atomic Number 99</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>339</v>
       </c>
@@ -8194,12 +8515,12 @@
       <c r="D107" t="b">
         <v>0</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" t="s">
         <v>341</v>
       </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
       <c r="G107">
         <v>0</v>
       </c>
@@ -8207,35 +8528,38 @@
         <v>0</v>
       </c>
       <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
         <v>257</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="K107" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L107">
+      <c r="M107">
         <v>3</v>
       </c>
-      <c r="M107">
+      <c r="N107">
         <v>7</v>
       </c>
-      <c r="N107">
+      <c r="O107">
         <v>8</v>
       </c>
-      <c r="O107">
+      <c r="P107">
         <v>13</v>
       </c>
-      <c r="P107" t="s">
+      <c r="Q107" t="s">
         <v>399</v>
       </c>
-      <c r="Q107" t="s">
+      <c r="R107" t="s">
         <v>517</v>
       </c>
-      <c r="R107" t="str">
+      <c r="S107" t="str">
         <f t="shared" si="3"/>
         <v>public Element Fm { get; private set; } // Fermium - Atomic Number 100</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>342</v>
       </c>
@@ -8248,12 +8572,12 @@
       <c r="D108" t="b">
         <v>0</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" t="s">
         <v>344</v>
       </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
       <c r="G108">
         <v>0</v>
       </c>
@@ -8261,35 +8585,38 @@
         <v>0</v>
       </c>
       <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
         <v>258</v>
       </c>
-      <c r="J108" s="1" t="s">
+      <c r="K108" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L108">
+      <c r="M108">
         <v>3</v>
       </c>
-      <c r="M108">
+      <c r="N108">
         <v>7</v>
       </c>
-      <c r="N108">
+      <c r="O108">
         <v>8</v>
       </c>
-      <c r="O108">
+      <c r="P108">
         <v>14</v>
       </c>
-      <c r="P108" t="s">
+      <c r="Q108" t="s">
         <v>399</v>
       </c>
-      <c r="Q108" t="s">
+      <c r="R108" t="s">
         <v>518</v>
       </c>
-      <c r="R108" t="str">
+      <c r="S108" t="str">
         <f t="shared" si="3"/>
         <v>public Element Md { get; private set; } // Mendelevium - Atomic Number 101</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>345</v>
       </c>
@@ -8302,12 +8629,12 @@
       <c r="D109" t="b">
         <v>0</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" t="s">
         <v>347</v>
       </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
       <c r="G109">
         <v>0</v>
       </c>
@@ -8315,35 +8642,38 @@
         <v>0</v>
       </c>
       <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
         <v>259</v>
       </c>
-      <c r="J109" s="1" t="s">
+      <c r="K109" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L109">
+      <c r="M109">
         <v>3</v>
       </c>
-      <c r="M109">
+      <c r="N109">
         <v>7</v>
       </c>
-      <c r="N109">
+      <c r="O109">
         <v>8</v>
       </c>
-      <c r="O109">
+      <c r="P109">
         <v>15</v>
       </c>
-      <c r="P109" t="s">
+      <c r="Q109" t="s">
         <v>399</v>
       </c>
-      <c r="Q109" t="s">
+      <c r="R109" t="s">
         <v>519</v>
       </c>
-      <c r="R109" t="str">
+      <c r="S109" t="str">
         <f t="shared" si="3"/>
         <v>public Element No { get; private set; } // Nobelium - Atomic Number 102</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>348</v>
       </c>
@@ -8356,12 +8686,12 @@
       <c r="D110" t="b">
         <v>0</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" t="s">
         <v>350</v>
       </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
       <c r="G110">
         <v>0</v>
       </c>
@@ -8369,35 +8699,38 @@
         <v>0</v>
       </c>
       <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
         <v>262</v>
       </c>
-      <c r="J110" s="1">
+      <c r="K110" s="1">
         <v>3</v>
       </c>
-      <c r="L110">
+      <c r="M110">
         <v>3</v>
       </c>
-      <c r="M110">
+      <c r="N110">
         <v>7</v>
       </c>
-      <c r="N110">
+      <c r="O110">
         <v>6</v>
       </c>
-      <c r="O110">
+      <c r="P110">
         <v>2</v>
       </c>
-      <c r="P110" t="s">
+      <c r="Q110" t="s">
         <v>397</v>
       </c>
-      <c r="Q110" t="s">
+      <c r="R110" t="s">
         <v>520</v>
       </c>
-      <c r="R110" t="str">
+      <c r="S110" t="str">
         <f t="shared" si="3"/>
         <v>public Element Lr { get; private set; } // Lawrencium - Atomic Number 103</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>351</v>
       </c>
@@ -8410,12 +8743,12 @@
       <c r="D111" t="b">
         <v>0</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" t="s">
         <v>353</v>
       </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
       <c r="G111">
         <v>0</v>
       </c>
@@ -8423,35 +8756,38 @@
         <v>0</v>
       </c>
       <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
         <v>267</v>
       </c>
-      <c r="J111" s="1" t="s">
+      <c r="K111" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L111">
+      <c r="M111">
         <v>4</v>
       </c>
-      <c r="M111">
+      <c r="N111">
         <v>7</v>
       </c>
-      <c r="N111">
+      <c r="O111">
         <v>6</v>
       </c>
-      <c r="O111">
+      <c r="P111">
         <v>3</v>
       </c>
-      <c r="P111" t="s">
+      <c r="Q111" t="s">
         <v>397</v>
       </c>
-      <c r="Q111" t="s">
+      <c r="R111" t="s">
         <v>521</v>
       </c>
-      <c r="R111" t="str">
+      <c r="S111" t="str">
         <f t="shared" si="3"/>
         <v>public Element Rf { get; private set; } // Rutherfordium - Atomic Number 104</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>354</v>
       </c>
@@ -8464,12 +8800,12 @@
       <c r="D112" t="b">
         <v>0</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" t="s">
         <v>356</v>
       </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
       <c r="G112">
         <v>0</v>
       </c>
@@ -8477,35 +8813,38 @@
         <v>0</v>
       </c>
       <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
         <v>270</v>
       </c>
-      <c r="J112" s="1" t="s">
+      <c r="K112" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L112">
+      <c r="M112">
         <v>5</v>
       </c>
-      <c r="M112">
+      <c r="N112">
         <v>7</v>
       </c>
-      <c r="N112">
+      <c r="O112">
         <v>6</v>
       </c>
-      <c r="O112">
+      <c r="P112">
         <v>4</v>
       </c>
-      <c r="P112" t="s">
+      <c r="Q112" t="s">
         <v>397</v>
       </c>
-      <c r="Q112" t="s">
+      <c r="R112" t="s">
         <v>522</v>
       </c>
-      <c r="R112" t="str">
+      <c r="S112" t="str">
         <f t="shared" si="3"/>
         <v>public Element Db { get; private set; } // Dubnium - Atomic Number 105</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>357</v>
       </c>
@@ -8518,12 +8857,12 @@
       <c r="D113" t="b">
         <v>0</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" t="s">
         <v>359</v>
       </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
       <c r="G113">
         <v>0</v>
       </c>
@@ -8531,32 +8870,35 @@
         <v>0</v>
       </c>
       <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
         <v>271</v>
       </c>
-      <c r="J113" s="1" t="s">
+      <c r="K113" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L113">
+      <c r="M113">
         <v>6</v>
       </c>
-      <c r="M113">
+      <c r="N113">
         <v>7</v>
       </c>
-      <c r="N113">
+      <c r="O113">
         <v>6</v>
       </c>
-      <c r="O113">
+      <c r="P113">
         <v>5</v>
       </c>
-      <c r="P113" t="s">
+      <c r="Q113" t="s">
         <v>397</v>
       </c>
-      <c r="R113" t="str">
+      <c r="S113" t="str">
         <f t="shared" si="3"/>
         <v>public Element Sg { get; private set; } // Seaborgium - Atomic Number 106</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>360</v>
       </c>
@@ -8569,12 +8911,12 @@
       <c r="D114" t="b">
         <v>0</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" t="s">
         <v>362</v>
       </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
       <c r="G114">
         <v>0</v>
       </c>
@@ -8582,32 +8924,35 @@
         <v>0</v>
       </c>
       <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
         <v>270</v>
       </c>
-      <c r="J114" s="1" t="s">
+      <c r="K114" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="L114">
-        <v>7</v>
       </c>
       <c r="M114">
         <v>7</v>
       </c>
       <c r="N114">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O114">
         <v>6</v>
       </c>
-      <c r="P114" t="s">
+      <c r="P114">
+        <v>6</v>
+      </c>
+      <c r="Q114" t="s">
         <v>397</v>
       </c>
-      <c r="R114" t="str">
+      <c r="S114" t="str">
         <f t="shared" si="3"/>
         <v>public Element Bh { get; private set; } // Bohrium - Atomic Number 107</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>363</v>
       </c>
@@ -8620,12 +8965,12 @@
       <c r="D115" t="b">
         <v>0</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" t="s">
         <v>365</v>
       </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
       <c r="G115">
         <v>0</v>
       </c>
@@ -8633,32 +8978,35 @@
         <v>0</v>
       </c>
       <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
         <v>277</v>
       </c>
-      <c r="J115" s="1" t="s">
+      <c r="K115" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L115">
+      <c r="M115">
         <v>8</v>
       </c>
-      <c r="M115">
+      <c r="N115">
         <v>7</v>
       </c>
-      <c r="N115">
+      <c r="O115">
         <v>6</v>
       </c>
-      <c r="O115">
+      <c r="P115">
         <v>7</v>
       </c>
-      <c r="P115" t="s">
+      <c r="Q115" t="s">
         <v>397</v>
       </c>
-      <c r="R115" t="str">
+      <c r="S115" t="str">
         <f t="shared" si="3"/>
         <v>public Element Hs { get; private set; } // Hassium - Atomic Number 108</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>366</v>
       </c>
@@ -8671,12 +9019,12 @@
       <c r="D116" t="b">
         <v>0</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" t="s">
         <v>368</v>
       </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
       <c r="G116">
         <v>0</v>
       </c>
@@ -8684,32 +9032,35 @@
         <v>0</v>
       </c>
       <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
         <v>276</v>
       </c>
-      <c r="J116" s="1" t="s">
+      <c r="K116" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L116">
+      <c r="M116">
         <v>9</v>
       </c>
-      <c r="M116">
+      <c r="N116">
         <v>7</v>
       </c>
-      <c r="N116">
+      <c r="O116">
         <v>6</v>
       </c>
-      <c r="O116">
+      <c r="P116">
         <v>8</v>
       </c>
-      <c r="P116" t="s">
+      <c r="Q116" t="s">
         <v>397</v>
       </c>
-      <c r="R116" t="str">
+      <c r="S116" t="str">
         <f t="shared" si="3"/>
         <v>public Element Mt { get; private set; } // Meitnerium - Atomic Number 109</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>369</v>
       </c>
@@ -8722,7 +9073,7 @@
       <c r="D117" t="b">
         <v>0</v>
       </c>
-      <c r="F117">
+      <c r="E117" t="b">
         <v>0</v>
       </c>
       <c r="G117">
@@ -8732,32 +9083,35 @@
         <v>0</v>
       </c>
       <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
         <v>281</v>
       </c>
-      <c r="J117" s="1" t="s">
+      <c r="K117" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L117">
+      <c r="M117">
         <v>10</v>
       </c>
-      <c r="M117">
+      <c r="N117">
         <v>7</v>
       </c>
-      <c r="N117">
+      <c r="O117">
         <v>6</v>
       </c>
-      <c r="O117">
+      <c r="P117">
         <v>9</v>
       </c>
-      <c r="P117" t="s">
+      <c r="Q117" t="s">
         <v>397</v>
       </c>
-      <c r="R117" t="str">
+      <c r="S117" t="str">
         <f t="shared" si="3"/>
         <v>public Element Ds { get; private set; } // Darmstadtium - Atomic Number 110</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>371</v>
       </c>
@@ -8770,7 +9124,7 @@
       <c r="D118" t="b">
         <v>0</v>
       </c>
-      <c r="F118">
+      <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="G118">
@@ -8780,32 +9134,35 @@
         <v>0</v>
       </c>
       <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
         <v>282</v>
       </c>
-      <c r="J118" s="1" t="s">
+      <c r="K118" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L118">
+      <c r="M118">
         <v>11</v>
       </c>
-      <c r="M118">
+      <c r="N118">
         <v>7</v>
       </c>
-      <c r="N118">
+      <c r="O118">
         <v>6</v>
       </c>
-      <c r="O118">
+      <c r="P118">
         <v>10</v>
       </c>
-      <c r="P118" t="s">
+      <c r="Q118" t="s">
         <v>397</v>
       </c>
-      <c r="R118" t="str">
+      <c r="S118" t="str">
         <f t="shared" si="3"/>
         <v>public Element Rg { get; private set; } // Roentgenium - Atomic Number 111</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>373</v>
       </c>
@@ -8818,7 +9175,7 @@
       <c r="D119" t="b">
         <v>0</v>
       </c>
-      <c r="F119">
+      <c r="E119" t="b">
         <v>0</v>
       </c>
       <c r="G119">
@@ -8828,32 +9185,35 @@
         <v>0</v>
       </c>
       <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
         <v>285</v>
       </c>
-      <c r="J119" s="1" t="s">
+      <c r="K119" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L119">
+      <c r="M119">
         <v>12</v>
       </c>
-      <c r="M119">
+      <c r="N119">
         <v>7</v>
       </c>
-      <c r="N119">
+      <c r="O119">
         <v>6</v>
       </c>
-      <c r="O119">
+      <c r="P119">
         <v>11</v>
       </c>
-      <c r="P119" t="s">
+      <c r="Q119" t="s">
         <v>397</v>
       </c>
-      <c r="R119" t="str">
+      <c r="S119" t="str">
         <f t="shared" si="3"/>
         <v>public Element Cn { get; private set; } // Copernicium - Atomic Number 112</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>401</v>
       </c>
@@ -8866,7 +9226,7 @@
       <c r="D120" t="b">
         <v>0</v>
       </c>
-      <c r="F120">
+      <c r="E120" t="b">
         <v>0</v>
       </c>
       <c r="G120">
@@ -8876,32 +9236,35 @@
         <v>0</v>
       </c>
       <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
         <v>285</v>
       </c>
-      <c r="J120" s="1" t="s">
+      <c r="K120" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L120">
+      <c r="M120">
         <v>13</v>
       </c>
-      <c r="M120">
+      <c r="N120">
         <v>7</v>
       </c>
-      <c r="N120">
+      <c r="O120">
         <v>6</v>
       </c>
-      <c r="O120">
+      <c r="P120">
         <v>12</v>
       </c>
-      <c r="P120" t="s">
+      <c r="Q120" t="s">
         <v>400</v>
       </c>
-      <c r="R120" t="str">
+      <c r="S120" t="str">
         <f t="shared" si="3"/>
         <v>public Element Nh { get; private set; } // Nihonium - Atomic Number 113</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>388</v>
       </c>
@@ -8914,7 +9277,7 @@
       <c r="D121" t="b">
         <v>0</v>
       </c>
-      <c r="F121">
+      <c r="E121" t="b">
         <v>0</v>
       </c>
       <c r="G121">
@@ -8924,32 +9287,35 @@
         <v>0</v>
       </c>
       <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
         <v>289</v>
       </c>
-      <c r="J121" s="1" t="s">
+      <c r="K121" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L121">
+      <c r="M121">
         <v>14</v>
       </c>
-      <c r="M121">
+      <c r="N121">
         <v>7</v>
       </c>
-      <c r="N121">
+      <c r="O121">
         <v>6</v>
       </c>
-      <c r="O121">
+      <c r="P121">
         <v>13</v>
       </c>
-      <c r="P121" t="s">
+      <c r="Q121" t="s">
         <v>400</v>
       </c>
-      <c r="R121" t="str">
+      <c r="S121" t="str">
         <f t="shared" si="3"/>
         <v>public Element Fl { get; private set; } // Flerovium - Atomic Number 114</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>402</v>
       </c>
@@ -8962,7 +9328,7 @@
       <c r="D122" t="b">
         <v>0</v>
       </c>
-      <c r="F122">
+      <c r="E122" t="b">
         <v>0</v>
       </c>
       <c r="G122">
@@ -8972,32 +9338,35 @@
         <v>0</v>
       </c>
       <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
         <v>289</v>
       </c>
-      <c r="J122" s="1" t="s">
+      <c r="K122" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L122">
+      <c r="M122">
         <v>15</v>
       </c>
-      <c r="M122">
+      <c r="N122">
         <v>7</v>
       </c>
-      <c r="N122">
+      <c r="O122">
         <v>6</v>
       </c>
-      <c r="O122">
+      <c r="P122">
         <v>14</v>
       </c>
-      <c r="P122" t="s">
+      <c r="Q122" t="s">
         <v>400</v>
       </c>
-      <c r="R122" t="str">
+      <c r="S122" t="str">
         <f t="shared" si="3"/>
         <v>public Element Mc { get; private set; } // Moscovium - Atomic Number 115</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>389</v>
       </c>
@@ -9010,7 +9379,7 @@
       <c r="D123" t="b">
         <v>0</v>
       </c>
-      <c r="F123">
+      <c r="E123" t="b">
         <v>0</v>
       </c>
       <c r="G123">
@@ -9020,32 +9389,35 @@
         <v>0</v>
       </c>
       <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
         <v>293</v>
       </c>
-      <c r="J123" s="1" t="s">
+      <c r="K123" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L123">
+      <c r="M123">
         <v>16</v>
       </c>
-      <c r="M123">
+      <c r="N123">
         <v>7</v>
       </c>
-      <c r="N123">
+      <c r="O123">
         <v>6</v>
       </c>
-      <c r="O123">
+      <c r="P123">
         <v>15</v>
       </c>
-      <c r="P123" t="s">
+      <c r="Q123" t="s">
         <v>400</v>
       </c>
-      <c r="R123" t="str">
+      <c r="S123" t="str">
         <f t="shared" si="3"/>
         <v>public Element Lv { get; private set; } // Livermorium - Atomic Number 116</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>403</v>
       </c>
@@ -9058,7 +9430,7 @@
       <c r="D124" t="b">
         <v>0</v>
       </c>
-      <c r="F124">
+      <c r="E124" t="b">
         <v>0</v>
       </c>
       <c r="G124">
@@ -9068,32 +9440,35 @@
         <v>0</v>
       </c>
       <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
         <v>294</v>
       </c>
-      <c r="J124" s="1" t="s">
+      <c r="K124" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L124">
+      <c r="M124">
         <v>17</v>
       </c>
-      <c r="M124">
+      <c r="N124">
         <v>7</v>
       </c>
-      <c r="N124">
+      <c r="O124">
         <v>6</v>
       </c>
-      <c r="O124">
+      <c r="P124">
         <v>16</v>
       </c>
-      <c r="P124" t="s">
+      <c r="Q124" t="s">
         <v>400</v>
       </c>
-      <c r="R124" t="str">
+      <c r="S124" t="str">
         <f t="shared" si="3"/>
         <v>public Element Ts { get; private set; } // Tennessine - Atomic Number 117</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>404</v>
       </c>
@@ -9106,7 +9481,7 @@
       <c r="D125" t="b">
         <v>0</v>
       </c>
-      <c r="F125">
+      <c r="E125" t="b">
         <v>0</v>
       </c>
       <c r="G125">
@@ -9116,36 +9491,39 @@
         <v>0</v>
       </c>
       <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
         <v>294</v>
       </c>
-      <c r="J125" s="1" t="s">
+      <c r="K125" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L125">
+      <c r="M125">
         <v>18</v>
       </c>
-      <c r="M125">
+      <c r="N125">
         <v>7</v>
       </c>
-      <c r="N125">
+      <c r="O125">
         <v>6</v>
       </c>
-      <c r="O125">
+      <c r="P125">
         <v>17</v>
       </c>
-      <c r="P125" t="s">
+      <c r="Q125" t="s">
         <v>400</v>
       </c>
-      <c r="R125" t="str">
+      <c r="S125" t="str">
         <f t="shared" si="3"/>
         <v>public Element Og { get; private set; } // Oganesson - Atomic Number 118</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M122" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R125">
+  <autoFilter ref="A1:N125" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S125">
     <sortCondition ref="C2:C125"/>
-    <sortCondition ref="G2:G125"/>
+    <sortCondition ref="H2:H125"/>
   </sortState>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
